--- a/protect_baltic/src/data/exampleEffect.xlsx
+++ b/protect_baltic/src/data/exampleEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilo\Documents\SOM\protect_baltic\src\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilo\Documents\SOM\protect_baltic\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2EB288-8EEA-4EAB-8005-086274560553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4BA23C-E2C8-497E-A959-27667993A868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12645" activeTab="2" xr2:uid="{FE3E50A6-33DC-4481-B285-03D4B03C2CFA}"/>
+    <workbookView xWindow="-24150" yWindow="6795" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{FE3E50A6-33DC-4481-B285-03D4B03C2CFA}"/>
   </bookViews>
   <sheets>
     <sheet name="MTEQ" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Survey ID</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>exp. ID / meas. eff.</t>
+  </si>
+  <si>
+    <t>expert ID</t>
   </si>
 </sst>
 </file>
@@ -685,16 +688,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F6BE5-DCB0-4284-BBBC-EFDAA0ED5E85}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -847,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909EFA10-5AC0-4FD5-B995-625E7A785404}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
